--- a/mutistic-demo-poi/src/main/java/com/mutistic/demo/file/excel/test/test-annontation.xlsx
+++ b/mutistic-demo-poi/src/main/java/com/mutistic/demo/file/excel/test/test-annontation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\git_project\mutisitc.demo\mutistic-demo-poi\src\main\java\com\mutistic\demo\file\excel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4622F6A-9C9C-4E6E-82C1-7643F90A07F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46130006-8A48-4EA7-8A44-09F4494DBA5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,13 @@
   <si>
     <t>值</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-12-2 12:22:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-12-2 12:22:23</t>
   </si>
 </sst>
 </file>
@@ -75,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -360,11 +368,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="18.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
@@ -376,7 +385,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -384,7 +393,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -392,8 +401,8 @@
       <c r="A3">
         <v>111</v>
       </c>
-      <c r="B3">
-        <v>222</v>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
